--- a/virtualGameServer/src/main/resources/excel/world/SceneRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/world/SceneRes.xlsx
@@ -43,7 +43,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>canGo</t>
+    <t>canGoList</t>
   </si>
   <si>
     <t>基地市</t>
@@ -101,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -109,9 +117,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,21 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -146,6 +155,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -154,54 +178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +193,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -224,22 +224,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +254,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,121 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,46 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,16 +546,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -566,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1040,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
